--- a/NformTester/NformTester/Keywordscripts/600.20.30.150_CheckWriteDataFunctionalityForCollingDeviceTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.150_CheckWriteDataFunctionalityForCollingDeviceTypes.xlsx
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7424" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7440" uniqueCount="838">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3724,29 +3724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SingleAuto"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Velocity_SingleAuto_0$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Velocity_SinAuto_0$</t>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3772,13 +3749,42 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert MPX/MPH - RPC1000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Emerson protocol"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_SingleAuto_0_Name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_SingleAuto_0_ComplexName$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Velocity_SingleAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3849,13 +3855,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4021,7 +4020,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4031,7 +4030,21 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4048,74 +4061,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4547,7 +4492,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4824,23 +4769,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="8" customWidth="1"/>
     <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="37.75" customWidth="1"/>
     <col min="6" max="6" width="59.625" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
     <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="26.875" customWidth="1"/>
+    <col min="11" max="11" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="25.25" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1">
@@ -4985,25 +4933,33 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>824</v>
+        <v>577</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>825</v>
+        <v>583</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+        <v>837</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>834</v>
+      </c>
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:15" ht="15">
@@ -5035,7 +4991,7 @@
         <v>767</v>
       </c>
       <c r="B7" s="18">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" s="15">
         <v>6</v>
@@ -5308,7 +5264,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>317</v>
@@ -5349,7 +5305,7 @@
         <v>791</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
@@ -5521,7 +5477,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="15"/>
@@ -5589,7 +5545,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>306</v>
@@ -5601,7 +5557,7 @@
         <v>56</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15"/>
@@ -5615,7 +5571,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>306</v>
@@ -5651,7 +5607,7 @@
         <v>56</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -6038,14 +5994,12 @@
         <v>306</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>810</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
@@ -6058,13 +6012,13 @@
         <v>44</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>782</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>306</v>
+        <v>790</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>2</v>
@@ -6082,13 +6036,13 @@
         <v>45</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>835</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>802</v>
+        <v>790</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>2</v>
@@ -6106,16 +6060,20 @@
         <v>46</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="F47" s="15">
-        <v>5</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
+        <v>306</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>810</v>
+      </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
@@ -6134,7 +6092,7 @@
         <v>306</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>2</v>
@@ -6147,16 +6105,22 @@
       <c r="M48" s="15"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="3:14" s="8" customFormat="1" ht="15">
+    <row r="49" spans="3:14" s="8" customFormat="1">
       <c r="C49" s="15">
         <v>48</v>
       </c>
-      <c r="D49" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="D49" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -6170,10 +6134,10 @@
         <v>49</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>805</v>
+        <v>756</v>
       </c>
       <c r="F50" s="15">
         <v>5</v>
@@ -6195,40 +6159,34 @@
         <v>782</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="3:14" s="8" customFormat="1">
+    <row r="52" spans="3:14" s="8" customFormat="1" ht="15">
       <c r="C52" s="15">
         <v>51</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="D52" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
@@ -6240,20 +6198,16 @@
         <v>52</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>798</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="F53" s="15">
+        <v>5</v>
+      </c>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -6261,24 +6215,24 @@
       <c r="M53" s="15"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="3:14" s="8" customFormat="1" ht="14.25">
+    <row r="54" spans="3:14" s="8" customFormat="1">
       <c r="C54" s="15">
         <v>53</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>807</v>
+        <v>19</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="23"/>
-      <c r="I54" s="15"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
@@ -6292,17 +6246,17 @@
       <c r="D55" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>585</v>
+      <c r="E55" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H55" s="12"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="12"/>
       <c r="J55" s="15"/>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -6320,34 +6274,38 @@
         <v>807</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="I56" s="15"/>
       <c r="J56" s="15"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="3:14" s="8" customFormat="1">
+    <row r="57" spans="3:14" s="8" customFormat="1" ht="14.25">
       <c r="C57" s="15">
         <v>56</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="F57" s="15">
-        <v>3</v>
-      </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
+        <v>807</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="23"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
       <c r="K57" s="15"/>
@@ -6355,27 +6313,105 @@
       <c r="M57" s="15"/>
       <c r="N57" s="17"/>
     </row>
+    <row r="58" spans="3:14" s="8" customFormat="1">
+      <c r="C58" s="15">
+        <v>57</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="3:14" s="8" customFormat="1">
+      <c r="C59" s="15">
+        <v>58</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="3:14" s="8" customFormat="1">
+      <c r="C60" s="15">
+        <v>59</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="F60" s="15">
+        <v>3</v>
+      </c>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="17"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N57">
-    <cfRule type="cellIs" dxfId="1" priority="59" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N60">
+    <cfRule type="cellIs" dxfId="3" priority="61" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 F2:F57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 F2:F60">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(D2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57 D51 D34:D40 D43:D48 D26:D29 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D60 D54 D34:D40 D3 D26:D29 D43:D51 D5">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G54:G57 G2:G52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G60 G2:G55">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5 E7:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E60 E2:E5">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -28366,7 +28402,7 @@
         <v>783</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/NformTester/NformTester/Keywordscripts/600.20.30.150_CheckWriteDataFunctionalityForCollingDeviceTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.150_CheckWriteDataFunctionalityForCollingDeviceTypes.xlsx
@@ -3768,15 +3768,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_0_Name$</t>
+    <t>$Velocity_device_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_0_ComplexName$</t>
+    <t>$NAME_Velocity_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$Velocity_SingleAuto_0$</t>
+    <t>$NAME_ACTION_Velocity_1$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4771,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4946,10 +4946,10 @@
         <v>831</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>832</v>
@@ -5305,7 +5305,7 @@
         <v>791</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="10"/>
